--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,64 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>femi femo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>143905233</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>falana</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>115110211899</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hmu</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1558911999</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>daniel oguns</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>118875233</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,155 +457,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>daniel falz</t>
+          <t>daniel daniel</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>115110211899</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>daniel femi</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>daniel casg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>400</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>demi</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>456</v>
-      </c>
-      <c r="D5" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sayo Oyewole</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>bigotte bigot</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>55</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>femi femo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>143905233</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>falana</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>115110211899</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>hmu</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1558911999</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>daniel oguns</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>118875233</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>lover</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>115112813499</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,42 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>daniel daniel</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>115110211899</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>lover</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>115112813499</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dannyo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>115110211899</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,26 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dannyo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>115110211899</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIEL OGUNLOLU </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>115110211899</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/students.xlsx
+++ b/Data/students.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">DANIEL OGUNLOLU </t>
+          <t>daniel ogunlolu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>115110211899</t>
+          <t>13765173</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
